--- a/ADCBackEnd/ExcelData/students.xlsx
+++ b/ADCBackEnd/ExcelData/students.xlsx
@@ -19,22 +19,55 @@
     <t>رقم العسكري</t>
   </si>
   <si>
-    <t>طالب11</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>طالب222</t>
-  </si>
-  <si>
-    <t>22222</t>
-  </si>
-  <si>
-    <t>محمد</t>
-  </si>
-  <si>
-    <t>1234</t>
+    <t>البريدالإلكتروني</t>
+  </si>
+  <si>
+    <t>الفرقة</t>
+  </si>
+  <si>
+    <t>السرية</t>
+  </si>
+  <si>
+    <t>الفصيلة</t>
+  </si>
+  <si>
+    <t>القسم</t>
+  </si>
+  <si>
+    <t>المحافظه</t>
+  </si>
+  <si>
+    <t>الدولة</t>
+  </si>
+  <si>
+    <t>اضعف تقدير الترم /العام السابق</t>
+  </si>
+  <si>
+    <t>تقدير الترم /العام السابق</t>
+  </si>
+  <si>
+    <t>مجموع الثانوية العامة</t>
+  </si>
+  <si>
+    <t>Alaa Essam</t>
+  </si>
+  <si>
+    <t>13456789454</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>اتصالات</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -92,29 +125,105 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
